--- a/data/nzd0408/nzd0408.xlsx
+++ b/data/nzd0408/nzd0408.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G384"/>
+  <dimension ref="A1:G387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10367,6 +10367,87 @@
       <c r="G384" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:07:54+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>338.9304347826087</v>
+      </c>
+      <c r="C385" t="n">
+        <v>334.9615384615385</v>
+      </c>
+      <c r="D385" t="n">
+        <v>347.8</v>
+      </c>
+      <c r="E385" t="n">
+        <v>342.4671428571428</v>
+      </c>
+      <c r="F385" t="n">
+        <v>345.38</v>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>347.3682608695652</v>
+      </c>
+      <c r="C386" t="n">
+        <v>339.3607692307692</v>
+      </c>
+      <c r="D386" t="n">
+        <v>346.3718181818182</v>
+      </c>
+      <c r="E386" t="n">
+        <v>350.2371428571428</v>
+      </c>
+      <c r="F386" t="n">
+        <v>354.09</v>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>344.2747826086956</v>
+      </c>
+      <c r="C387" t="n">
+        <v>335.5161538461539</v>
+      </c>
+      <c r="D387" t="n">
+        <v>349.3027272727272</v>
+      </c>
+      <c r="E387" t="n">
+        <v>338.7152380952381</v>
+      </c>
+      <c r="F387" t="n">
+        <v>348.64</v>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B403"/>
+  <dimension ref="A1:B406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14419,6 +14500,36 @@
       </c>
       <c r="B403" t="n">
         <v>-0.12</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -14587,28 +14698,28 @@
         <v>0.1328</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3032480258936677</v>
+        <v>-0.2984994045332711</v>
       </c>
       <c r="J2" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K2" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07051669755242163</v>
+        <v>0.06944875818188023</v>
       </c>
       <c r="M2" t="n">
-        <v>6.22922412020236</v>
+        <v>6.208832360213819</v>
       </c>
       <c r="N2" t="n">
-        <v>63.77686785951224</v>
+        <v>63.38355787749348</v>
       </c>
       <c r="O2" t="n">
-        <v>7.986042064722189</v>
+        <v>7.961379144186859</v>
       </c>
       <c r="P2" t="n">
-        <v>348.4435042753491</v>
+        <v>348.3965060077291</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -14664,28 +14775,28 @@
         <v>0.1553</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3097537627436613</v>
+        <v>-0.3094545822025384</v>
       </c>
       <c r="J3" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K3" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1111191212106805</v>
+        <v>0.1126035060013948</v>
       </c>
       <c r="M3" t="n">
-        <v>4.842256834440079</v>
+        <v>4.815670761018842</v>
       </c>
       <c r="N3" t="n">
-        <v>41.4881558155779</v>
+        <v>41.16176928065914</v>
       </c>
       <c r="O3" t="n">
-        <v>6.441130010765029</v>
+        <v>6.415743860275217</v>
       </c>
       <c r="P3" t="n">
-        <v>344.2690154191771</v>
+        <v>344.2661517669267</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -14741,28 +14852,28 @@
         <v>0.1224</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1015085035437572</v>
+        <v>-0.1010731323646083</v>
       </c>
       <c r="J4" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K4" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01193831996393269</v>
+        <v>0.01203753052564238</v>
       </c>
       <c r="M4" t="n">
-        <v>5.084735496902589</v>
+        <v>5.050251702517312</v>
       </c>
       <c r="N4" t="n">
-        <v>45.94713002273052</v>
+        <v>45.56733602804648</v>
       </c>
       <c r="O4" t="n">
-        <v>6.778431236114336</v>
+        <v>6.750358214794714</v>
       </c>
       <c r="P4" t="n">
-        <v>350.1332766993426</v>
+        <v>350.1290053335327</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -14812,28 +14923,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.002743603225035799</v>
+        <v>0.004569163504879467</v>
       </c>
       <c r="J5" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K5" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L5" t="n">
-        <v>8.197457979419731e-06</v>
+        <v>2.302437395518275e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.138821012782843</v>
+        <v>5.128766848577574</v>
       </c>
       <c r="N5" t="n">
-        <v>49.222587890307</v>
+        <v>49.00023761220031</v>
       </c>
       <c r="O5" t="n">
-        <v>7.015881120023843</v>
+        <v>7.000016972279447</v>
       </c>
       <c r="P5" t="n">
-        <v>342.6177760822133</v>
+        <v>342.5999510904336</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -14889,28 +15000,28 @@
         <v>0.1118</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3149940052004148</v>
+        <v>-0.3041184550155224</v>
       </c>
       <c r="J6" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K6" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09063969431812446</v>
+        <v>0.08570230943479162</v>
       </c>
       <c r="M6" t="n">
-        <v>5.332032166812203</v>
+        <v>5.337729864796771</v>
       </c>
       <c r="N6" t="n">
-        <v>53.70139707715999</v>
+        <v>53.69807466932492</v>
       </c>
       <c r="O6" t="n">
-        <v>7.328123707823169</v>
+        <v>7.327897015469371</v>
       </c>
       <c r="P6" t="n">
-        <v>350.8994255788683</v>
+        <v>350.7937687248149</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -14947,7 +15058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G384"/>
+  <dimension ref="A1:G387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28275,6 +28386,117 @@
         </is>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:07:54+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>-42.87146039149421,173.3102753299363</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>-42.872099430371755,173.31004207799396</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>-42.8727668682752,173.31004763321172</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>-42.87342527518765,173.3099799474902</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>-42.874080012125965,173.31007155570398</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>-42.87147584329049,173.31037647650678</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>-42.8721067011257,173.31009502387298</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>-42.87276581371027,173.31003020635916</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>-42.873423010445336,173.3100750295068</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>-42.87407492550175,173.31017797307706</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>-42.871470178358834,173.3103393941158</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>-42.87210034700427,173.31004875293274</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>-42.872767977881395,173.31006596967782</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>-42.87342636873691,173.30993403517468</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>-42.87407810830345,173.31011138585953</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0408/nzd0408.xlsx
+++ b/data/nzd0408/nzd0408.xlsx
@@ -14543,7 +14543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14634,35 +14634,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -14721,27 +14726,28 @@
       <c r="P2" t="n">
         <v>348.3965060077291</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.30621251776907 -42.87083964999457, 173.31692258188914 -42.87247566148254)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.3062125177691</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-42.87083964999457</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.3169225818891</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-42.87247566148254</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.3115675498291</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-42.87165765573856</v>
       </c>
     </row>
@@ -14798,27 +14804,28 @@
       <c r="P3" t="n">
         <v>344.2661517669267</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.3060107654337 -42.87154575633119, 173.31676375608822 -42.87302227024207)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.3060107654337</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-42.87154575633119</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.3167637560882</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-42.87302227024207</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.311387260761</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-42.87228401328663</v>
       </c>
     </row>
@@ -14875,27 +14882,28 @@
       <c r="P4" t="n">
         <v>350.1290053335327</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.30580375133627 -42.87250997546339, 173.31670610662195 -42.87316960091791)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.3058037513363</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-42.87250997546339</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.316706106622</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-42.87316960091791</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.3112549289791</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-42.87283978819065</v>
       </c>
     </row>
@@ -14946,27 +14954,28 @@
       <c r="P5" t="n">
         <v>342.5999510904336</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.30578914649266 -42.8735250165671, 173.31672272560562 -42.87326447396967)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.3057891464927</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-42.8735250165671</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.3167227256056</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-42.87326447396967</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.3112559360491</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-42.87339474526839</v>
       </c>
     </row>
@@ -15023,27 +15032,28 @@
       <c r="P6" t="n">
         <v>350.7937687248149</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.30585174410677 -42.874281633734675, 173.3167680547818 -42.87375973310555)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.3058517441068</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-42.87428163373468</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.3167680547818</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-42.87375973310555</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.3113098994443</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-42.87402068342011</v>
       </c>
     </row>

--- a/data/nzd0408/nzd0408.xlsx
+++ b/data/nzd0408/nzd0408.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G387"/>
+  <dimension ref="A1:G389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10448,6 +10448,60 @@
       <c r="G387" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>349.0426086956522</v>
+      </c>
+      <c r="C388" t="n">
+        <v>338.1330769230769</v>
+      </c>
+      <c r="D388" t="n">
+        <v>351.1972727272728</v>
+      </c>
+      <c r="E388" t="n">
+        <v>341.0866666666667</v>
+      </c>
+      <c r="F388" t="n">
+        <v>343.29</v>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>340.5226086956522</v>
+      </c>
+      <c r="C389" t="n">
+        <v>340.1146153846154</v>
+      </c>
+      <c r="D389" t="n">
+        <v>346.9254545454546</v>
+      </c>
+      <c r="E389" t="n">
+        <v>346.3557142857143</v>
+      </c>
+      <c r="F389" t="n">
+        <v>349</v>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10462,7 +10516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B406"/>
+  <dimension ref="A1:B408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14530,6 +14584,26 @@
       </c>
       <c r="B406" t="n">
         <v>-0.41</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>
@@ -14703,28 +14777,28 @@
         <v>0.1328</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2984994045332711</v>
+        <v>-0.2939183049139658</v>
       </c>
       <c r="J2" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K2" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06944875818188023</v>
+        <v>0.06804268598131669</v>
       </c>
       <c r="M2" t="n">
-        <v>6.208832360213819</v>
+        <v>6.196749055502041</v>
       </c>
       <c r="N2" t="n">
-        <v>63.38355787749348</v>
+        <v>63.20885336914444</v>
       </c>
       <c r="O2" t="n">
-        <v>7.961379144186859</v>
+        <v>7.950399572923643</v>
       </c>
       <c r="P2" t="n">
-        <v>348.3965060077291</v>
+        <v>348.3508793560316</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14781,28 +14855,28 @@
         <v>0.1553</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3094545822025384</v>
+        <v>-0.306375317634527</v>
       </c>
       <c r="J3" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K3" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1126035060013948</v>
+        <v>0.1116846269685006</v>
       </c>
       <c r="M3" t="n">
-        <v>4.815670761018842</v>
+        <v>4.804547487841204</v>
       </c>
       <c r="N3" t="n">
-        <v>41.16176928065914</v>
+        <v>40.97411393716081</v>
       </c>
       <c r="O3" t="n">
-        <v>6.415743860275217</v>
+        <v>6.401102556369551</v>
       </c>
       <c r="P3" t="n">
-        <v>344.2661517669267</v>
+        <v>344.2361014712546</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14859,28 +14933,28 @@
         <v>0.1224</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1010731323646083</v>
+        <v>-0.09943150489546779</v>
       </c>
       <c r="J4" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K4" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01203753052564238</v>
+        <v>0.01177970650833882</v>
       </c>
       <c r="M4" t="n">
-        <v>5.050251702517312</v>
+        <v>5.033463649692886</v>
       </c>
       <c r="N4" t="n">
-        <v>45.56733602804648</v>
+        <v>45.34761103931008</v>
       </c>
       <c r="O4" t="n">
-        <v>6.750358214794714</v>
+        <v>6.734063486432993</v>
       </c>
       <c r="P4" t="n">
-        <v>350.1290053335327</v>
+        <v>350.1129893949629</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14931,28 +15005,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.004569163504879467</v>
+        <v>0.005706337653709281</v>
       </c>
       <c r="J5" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K5" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L5" t="n">
-        <v>2.302437395518275e-05</v>
+        <v>3.629307894192912e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.128766848577574</v>
+        <v>5.114561620020933</v>
       </c>
       <c r="N5" t="n">
-        <v>49.00023761220031</v>
+        <v>48.75793760760421</v>
       </c>
       <c r="O5" t="n">
-        <v>7.000016972279447</v>
+        <v>6.982688422635239</v>
       </c>
       <c r="P5" t="n">
-        <v>342.5999510904336</v>
+        <v>342.5884980744102</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15009,28 +15083,28 @@
         <v>0.1118</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3041184550155224</v>
+        <v>-0.3005742944796549</v>
       </c>
       <c r="J6" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K6" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08570230943479162</v>
+        <v>0.08465695233778081</v>
       </c>
       <c r="M6" t="n">
-        <v>5.337729864796771</v>
+        <v>5.323289526764012</v>
       </c>
       <c r="N6" t="n">
-        <v>53.69807466932492</v>
+        <v>53.48636683884681</v>
       </c>
       <c r="O6" t="n">
-        <v>7.327897015469371</v>
+        <v>7.313437416075071</v>
       </c>
       <c r="P6" t="n">
-        <v>350.7937687248149</v>
+        <v>350.7588245857372</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15068,7 +15142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G387"/>
+  <dimension ref="A1:G389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28507,6 +28581,80 @@
         </is>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>-42.87147890943471,173.31039654738626</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>-42.87210467208056,173.3100802482776</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>-42.87276937679997,173.31008908715933</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>-42.87342567755041,173.3099630545087</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>-42.87408123266746,173.3100460204189</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>-42.871463307174686,173.31029441576445</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>-42.87210794702967,173.31010409660746</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>-42.87276622251392,173.310036961899</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>-42.873424141785385,173.31002753220324</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>-42.87407789806453,173.31011578428144</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0408/nzd0408.xlsx
+++ b/data/nzd0408/nzd0408.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G389"/>
+  <dimension ref="A1:G391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10502,6 +10502,60 @@
       <c r="G389" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>336.9669565217391</v>
+      </c>
+      <c r="C390" t="n">
+        <v>344.1969230769231</v>
+      </c>
+      <c r="D390" t="n">
+        <v>353.9109090909091</v>
+      </c>
+      <c r="E390" t="n">
+        <v>346.7752380952381</v>
+      </c>
+      <c r="F390" t="n">
+        <v>346.72</v>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>338.0117391304348</v>
+      </c>
+      <c r="C391" t="n">
+        <v>340.0815384615385</v>
+      </c>
+      <c r="D391" t="n">
+        <v>350.7454545454545</v>
+      </c>
+      <c r="E391" t="n">
+        <v>350.6514285714285</v>
+      </c>
+      <c r="F391" t="n">
+        <v>355.3200000000001</v>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10516,7 +10570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B408"/>
+  <dimension ref="A1:B410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14604,6 +14658,26 @@
       </c>
       <c r="B408" t="n">
         <v>-0.6</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -14777,28 +14851,28 @@
         <v>0.1328</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2939183049139658</v>
+        <v>-0.2977115023604221</v>
       </c>
       <c r="J2" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K2" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06804268598131669</v>
+        <v>0.07041404019396214</v>
       </c>
       <c r="M2" t="n">
-        <v>6.196749055502041</v>
+        <v>6.179835720080033</v>
       </c>
       <c r="N2" t="n">
-        <v>63.20885336914444</v>
+        <v>62.90288259488084</v>
       </c>
       <c r="O2" t="n">
-        <v>7.950399572923643</v>
+        <v>7.931133752174454</v>
       </c>
       <c r="P2" t="n">
-        <v>348.3508793560316</v>
+        <v>348.3890651387084</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14855,28 +14929,28 @@
         <v>0.1553</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.306375317634527</v>
+        <v>-0.2999758163089212</v>
       </c>
       <c r="J3" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K3" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1116846269685006</v>
+        <v>0.1082242454664839</v>
       </c>
       <c r="M3" t="n">
-        <v>4.804547487841204</v>
+        <v>4.811364089974489</v>
       </c>
       <c r="N3" t="n">
-        <v>40.97411393716081</v>
+        <v>40.95120622810146</v>
       </c>
       <c r="O3" t="n">
-        <v>6.401102556369551</v>
+        <v>6.399312949692447</v>
       </c>
       <c r="P3" t="n">
-        <v>344.2361014712546</v>
+        <v>344.1732778462866</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14933,28 +15007,28 @@
         <v>0.1224</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.09943150489546779</v>
+        <v>-0.09423180263715271</v>
       </c>
       <c r="J4" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K4" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01177970650833882</v>
+        <v>0.01068368255044716</v>
       </c>
       <c r="M4" t="n">
-        <v>5.033463649692886</v>
+        <v>5.031207650204112</v>
       </c>
       <c r="N4" t="n">
-        <v>45.34761103931008</v>
+        <v>45.23216999618746</v>
       </c>
       <c r="O4" t="n">
-        <v>6.734063486432993</v>
+        <v>6.72548659921254</v>
       </c>
       <c r="P4" t="n">
-        <v>350.1129893949629</v>
+        <v>350.0616555318397</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15005,28 +15079,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.005706337653709281</v>
+        <v>0.01234883549619691</v>
       </c>
       <c r="J5" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K5" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L5" t="n">
-        <v>3.629307894192912e-05</v>
+        <v>0.0001711247888305234</v>
       </c>
       <c r="M5" t="n">
-        <v>5.114561620020933</v>
+        <v>5.122539686113361</v>
       </c>
       <c r="N5" t="n">
-        <v>48.75793760760421</v>
+        <v>48.69996804616672</v>
       </c>
       <c r="O5" t="n">
-        <v>6.982688422635239</v>
+        <v>6.978536239510884</v>
       </c>
       <c r="P5" t="n">
-        <v>342.5884980744102</v>
+        <v>342.5216374440809</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15083,28 +15157,28 @@
         <v>0.1118</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3005742944796549</v>
+        <v>-0.2915725956085802</v>
       </c>
       <c r="J6" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K6" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08465695233778081</v>
+        <v>0.08029420887898953</v>
       </c>
       <c r="M6" t="n">
-        <v>5.323289526764012</v>
+        <v>5.334905539704763</v>
       </c>
       <c r="N6" t="n">
-        <v>53.48636683884681</v>
+        <v>53.64860748608783</v>
       </c>
       <c r="O6" t="n">
-        <v>7.313437416075071</v>
+        <v>7.324520973148198</v>
       </c>
       <c r="P6" t="n">
-        <v>350.7588245857372</v>
+        <v>350.6696116800797</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15142,7 +15216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G389"/>
+  <dimension ref="A1:G391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28655,6 +28729,80 @@
         </is>
       </c>
     </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>-42.87145679585547,173.31025179318289</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>-42.87211469396853,173.31015322824828</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>-42.87277138052116,173.31012219929264</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>-42.873424019505556,173.31003266594453</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>-42.874079229574825,173.3100879276087</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>-42.87145870912443,173.31026431727875</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>-42.872107892362465,173.31010369851805</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>-42.87276904318113,173.31008357401703</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>-42.87342288969017,173.310080099149</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>-42.874074207176,173.31019300101693</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0408/nzd0408.xlsx
+++ b/data/nzd0408/nzd0408.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G391"/>
+  <dimension ref="A1:G392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10556,6 +10556,33 @@
       <c r="G391" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>329.0456521739131</v>
+      </c>
+      <c r="C392" t="n">
+        <v>331.5646153846154</v>
+      </c>
+      <c r="D392" t="n">
+        <v>338.8281818181818</v>
+      </c>
+      <c r="E392" t="n">
+        <v>335.452380952381</v>
+      </c>
+      <c r="F392" t="n">
+        <v>342.76</v>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10570,7 +10597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B410"/>
+  <dimension ref="A1:B411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14678,6 +14705,16 @@
       </c>
       <c r="B410" t="n">
         <v>0.06</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -14851,28 +14888,28 @@
         <v>0.1328</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2977115023604221</v>
+        <v>-0.3043747008693768</v>
       </c>
       <c r="J2" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K2" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07041404019396214</v>
+        <v>0.07335048445316283</v>
       </c>
       <c r="M2" t="n">
-        <v>6.179835720080033</v>
+        <v>6.195639410984936</v>
       </c>
       <c r="N2" t="n">
-        <v>62.90288259488084</v>
+        <v>63.11439829511369</v>
       </c>
       <c r="O2" t="n">
-        <v>7.931133752174454</v>
+        <v>7.944457079946602</v>
       </c>
       <c r="P2" t="n">
-        <v>348.3890651387084</v>
+        <v>348.4562958764242</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14929,28 +14966,28 @@
         <v>0.1553</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2999758163089212</v>
+        <v>-0.3026738039603694</v>
       </c>
       <c r="J3" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K3" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1082242454664839</v>
+        <v>0.1103868772750664</v>
       </c>
       <c r="M3" t="n">
-        <v>4.811364089974489</v>
+        <v>4.810876443267532</v>
       </c>
       <c r="N3" t="n">
-        <v>40.95120622810146</v>
+        <v>40.90202400799027</v>
       </c>
       <c r="O3" t="n">
-        <v>6.399312949692447</v>
+        <v>6.395469021736425</v>
       </c>
       <c r="P3" t="n">
-        <v>344.1732778462866</v>
+        <v>344.1998305504081</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15007,28 +15044,28 @@
         <v>0.1224</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.09423180263715271</v>
+        <v>-0.0990144814135058</v>
       </c>
       <c r="J4" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K4" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01068368255044716</v>
+        <v>0.01179476722242045</v>
       </c>
       <c r="M4" t="n">
-        <v>5.031207650204112</v>
+        <v>5.042290429960901</v>
       </c>
       <c r="N4" t="n">
-        <v>45.23216999618746</v>
+        <v>45.32117981617557</v>
       </c>
       <c r="O4" t="n">
-        <v>6.72548659921254</v>
+        <v>6.73210069860631</v>
       </c>
       <c r="P4" t="n">
-        <v>350.0616555318397</v>
+        <v>350.1089903538131</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15079,28 +15116,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.01234883549619691</v>
+        <v>0.008265977924987398</v>
       </c>
       <c r="J5" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K5" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001711247888305234</v>
+        <v>7.687399829015007e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.122539686113361</v>
+        <v>5.127075682011218</v>
       </c>
       <c r="N5" t="n">
-        <v>48.69996804616672</v>
+        <v>48.71574782535347</v>
       </c>
       <c r="O5" t="n">
-        <v>6.978536239510884</v>
+        <v>6.979666741711489</v>
       </c>
       <c r="P5" t="n">
-        <v>342.5216374440809</v>
+        <v>342.5628099210957</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15157,28 +15194,28 @@
         <v>0.1118</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2915725956085802</v>
+        <v>-0.2918000067469492</v>
       </c>
       <c r="J6" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K6" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08029420887898953</v>
+        <v>0.0808514544580522</v>
       </c>
       <c r="M6" t="n">
-        <v>5.334905539704763</v>
+        <v>5.320566949942853</v>
       </c>
       <c r="N6" t="n">
-        <v>53.64860748608783</v>
+        <v>53.49221735046663</v>
       </c>
       <c r="O6" t="n">
-        <v>7.324520973148198</v>
+        <v>7.313837388844972</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6696116800797</v>
+        <v>350.671869039974</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15216,7 +15253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G391"/>
+  <dimension ref="A1:G392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17291,7 +17328,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-42.87211325101278,173.31014272053827</t>
+          <t>-42.872113251012784,173.31014272053827</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -21074,7 +21111,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-42.872773608433064,173.3101590164377</t>
+          <t>-42.87277360843307,173.3101590164377</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -25904,7 +25941,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>-42.87407900181696,173.31009269256597</t>
+          <t>-42.87407900181695,173.31009269256597</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -28803,6 +28840,43 @@
         </is>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>-42.871442289840225,173.3101568383587</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>-42.87209381614804,173.31000119515545</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>-42.872760243468996,173.30993815797757</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>-42.87342731973092,173.30989410736694</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>-42.87408154218187,173.31003954496364</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0408/nzd0408.xlsx
+++ b/data/nzd0408/nzd0408.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G392"/>
+  <dimension ref="A1:G393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10581,6 +10581,33 @@
         <v>342.76</v>
       </c>
       <c r="G392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>330.9439130434782</v>
+      </c>
+      <c r="C393" t="n">
+        <v>326.5515384615384</v>
+      </c>
+      <c r="D393" t="n">
+        <v>336.1245454545455</v>
+      </c>
+      <c r="E393" t="n">
+        <v>327.7719047619048</v>
+      </c>
+      <c r="F393" t="n">
+        <v>342.79</v>
+      </c>
+      <c r="G393" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10597,7 +10624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B411"/>
+  <dimension ref="A1:B412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14715,6 +14742,16 @@
       </c>
       <c r="B411" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
@@ -14888,28 +14925,28 @@
         <v>0.1328</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3043747008693768</v>
+        <v>-0.3098914629534852</v>
       </c>
       <c r="J2" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K2" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07335048445316283</v>
+        <v>0.07596038252907278</v>
       </c>
       <c r="M2" t="n">
-        <v>6.195639410984936</v>
+        <v>6.205175677288455</v>
       </c>
       <c r="N2" t="n">
-        <v>63.11439829511369</v>
+        <v>63.19883388323566</v>
       </c>
       <c r="O2" t="n">
-        <v>7.944457079946602</v>
+        <v>7.949769423274844</v>
       </c>
       <c r="P2" t="n">
-        <v>348.4562958764242</v>
+        <v>348.5123081543717</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14966,28 +15003,28 @@
         <v>0.1553</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3026738039603694</v>
+        <v>-0.3081107612359013</v>
       </c>
       <c r="J3" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K3" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1103868772750664</v>
+        <v>0.1138717615877717</v>
       </c>
       <c r="M3" t="n">
-        <v>4.810876443267532</v>
+        <v>4.823686240146317</v>
       </c>
       <c r="N3" t="n">
-        <v>40.90202400799027</v>
+        <v>41.0573019475375</v>
       </c>
       <c r="O3" t="n">
-        <v>6.395469021736425</v>
+        <v>6.407597205469263</v>
       </c>
       <c r="P3" t="n">
-        <v>344.1998305504081</v>
+        <v>344.2536788171832</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15044,28 +15081,28 @@
         <v>0.1224</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0990144814135058</v>
+        <v>-0.1052389639779259</v>
       </c>
       <c r="J4" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K4" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01179476722242045</v>
+        <v>0.01327662719223344</v>
       </c>
       <c r="M4" t="n">
-        <v>5.042290429960901</v>
+        <v>5.061032656433675</v>
       </c>
       <c r="N4" t="n">
-        <v>45.32117981617557</v>
+        <v>45.55657934931438</v>
       </c>
       <c r="O4" t="n">
-        <v>6.73210069860631</v>
+        <v>6.749561419034157</v>
       </c>
       <c r="P4" t="n">
-        <v>350.1089903538131</v>
+        <v>350.1709868583707</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15116,28 +15153,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.008265977924987398</v>
+        <v>-5.913965810456881e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K5" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L5" t="n">
-        <v>7.687399829015007e-05</v>
+        <v>3.906058365643617e-09</v>
       </c>
       <c r="M5" t="n">
-        <v>5.127075682011218</v>
+        <v>5.152095561642715</v>
       </c>
       <c r="N5" t="n">
-        <v>48.71574782535347</v>
+        <v>49.2243854121059</v>
       </c>
       <c r="O5" t="n">
-        <v>6.979666741711489</v>
+        <v>7.016009222635465</v>
       </c>
       <c r="P5" t="n">
-        <v>342.5628099210957</v>
+        <v>342.6473139421656</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15194,28 +15231,28 @@
         <v>0.1118</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2918000067469492</v>
+        <v>-0.2919877269849133</v>
       </c>
       <c r="J6" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K6" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0808514544580522</v>
+        <v>0.08139777530396941</v>
       </c>
       <c r="M6" t="n">
-        <v>5.320566949942853</v>
+        <v>5.306084973176286</v>
       </c>
       <c r="N6" t="n">
-        <v>53.49221735046663</v>
+        <v>53.33658534082522</v>
       </c>
       <c r="O6" t="n">
-        <v>7.313837388844972</v>
+        <v>7.303190079740854</v>
       </c>
       <c r="P6" t="n">
-        <v>350.671869039974</v>
+        <v>350.6737444163073</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15253,7 +15290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G392"/>
+  <dimension ref="A1:G393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28877,6 +28914,43 @@
         </is>
       </c>
     </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>-42.871445766067986,173.31017959332272</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>-42.87208553081879,173.30994086150517</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>-42.872758247078636,173.30990516787702</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>-42.873429558231464,173.3098001208453</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>-42.874081524662195,173.31003991149885</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0408/nzd0408.xlsx
+++ b/data/nzd0408/nzd0408.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G393"/>
+  <dimension ref="A1:G394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10610,6 +10610,33 @@
       <c r="G393" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>346.9804347826087</v>
+      </c>
+      <c r="C394" t="n">
+        <v>344.5</v>
+      </c>
+      <c r="D394" t="n">
+        <v>354.4018181818182</v>
+      </c>
+      <c r="E394" t="n">
+        <v>343.3180952380952</v>
+      </c>
+      <c r="F394" t="n">
+        <v>341.63</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10624,7 +10651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B412"/>
+  <dimension ref="A1:B413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14752,6 +14779,16 @@
       </c>
       <c r="B412" t="n">
         <v>0.71</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -14925,28 +14962,28 @@
         <v>0.1328</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3098914629534852</v>
+        <v>-0.3061565281290912</v>
       </c>
       <c r="J2" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K2" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07596038252907278</v>
+        <v>0.07456674386372097</v>
       </c>
       <c r="M2" t="n">
-        <v>6.205175677288455</v>
+        <v>6.206261999233464</v>
       </c>
       <c r="N2" t="n">
-        <v>63.19883388323566</v>
+        <v>63.13750465958255</v>
       </c>
       <c r="O2" t="n">
-        <v>7.949769423274844</v>
+        <v>7.945911191272059</v>
       </c>
       <c r="P2" t="n">
-        <v>348.5123081543717</v>
+        <v>348.4741927715583</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15003,28 +15040,28 @@
         <v>0.1553</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3081107612359013</v>
+        <v>-0.303537352526093</v>
       </c>
       <c r="J3" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K3" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1138717615877717</v>
+        <v>0.1110292416493568</v>
       </c>
       <c r="M3" t="n">
-        <v>4.823686240146317</v>
+        <v>4.834337430174896</v>
       </c>
       <c r="N3" t="n">
-        <v>41.0573019475375</v>
+        <v>41.13209291157036</v>
       </c>
       <c r="O3" t="n">
-        <v>6.407597205469263</v>
+        <v>6.413430666310377</v>
       </c>
       <c r="P3" t="n">
-        <v>344.2536788171832</v>
+        <v>344.2081483934802</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15081,28 +15118,28 @@
         <v>0.1224</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1052389639779259</v>
+        <v>-0.101438766239216</v>
       </c>
       <c r="J4" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K4" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327662719223344</v>
+        <v>0.01238335772449428</v>
       </c>
       <c r="M4" t="n">
-        <v>5.061032656433675</v>
+        <v>5.065621611057758</v>
       </c>
       <c r="N4" t="n">
-        <v>45.55657934931438</v>
+        <v>45.56363652496661</v>
       </c>
       <c r="O4" t="n">
-        <v>6.749561419034157</v>
+        <v>6.750084186509573</v>
       </c>
       <c r="P4" t="n">
-        <v>350.1709868583707</v>
+        <v>350.1329397780252</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15153,28 +15190,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-5.913965810456881e-05</v>
+        <v>0.0003144853970169929</v>
       </c>
       <c r="J5" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K5" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L5" t="n">
-        <v>3.906058365643617e-09</v>
+        <v>1.111039520385049e-07</v>
       </c>
       <c r="M5" t="n">
-        <v>5.152095561642715</v>
+        <v>5.139219898610989</v>
       </c>
       <c r="N5" t="n">
-        <v>49.2243854121059</v>
+        <v>49.08259373676761</v>
       </c>
       <c r="O5" t="n">
-        <v>7.016009222635465</v>
+        <v>7.005897068667767</v>
       </c>
       <c r="P5" t="n">
-        <v>342.6473139421656</v>
+        <v>342.6435011268284</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15231,28 +15268,28 @@
         <v>0.1118</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2919877269849133</v>
+        <v>-0.2928090790020773</v>
       </c>
       <c r="J6" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K6" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08139777530396941</v>
+        <v>0.0822695789929565</v>
       </c>
       <c r="M6" t="n">
-        <v>5.306084973176286</v>
+        <v>5.2951462216668</v>
       </c>
       <c r="N6" t="n">
-        <v>53.33658534082522</v>
+        <v>53.18766845253294</v>
       </c>
       <c r="O6" t="n">
-        <v>7.303190079740854</v>
+        <v>7.292987621855184</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6737444163073</v>
+        <v>350.6819931181521</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15290,7 +15327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G393"/>
+  <dimension ref="A1:G394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28951,6 +28988,43 @@
         </is>
       </c>
     </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>-42.871475133084694,173.31037182752638</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>-42.872115194871,173.31015687585875</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>-42.87277174300237,173.31012818942756</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>-42.87342502716217,173.3099903606525</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>-42.87408220208871,173.31002573880414</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0408/nzd0408.xlsx
+++ b/data/nzd0408/nzd0408.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G394"/>
+  <dimension ref="A1:G395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10637,6 +10637,33 @@
       <c r="G394" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>344.208695652174</v>
+      </c>
+      <c r="C395" t="n">
+        <v>339.4207692307692</v>
+      </c>
+      <c r="D395" t="n">
+        <v>346.9836363636364</v>
+      </c>
+      <c r="E395" t="n">
+        <v>333.9552380952381</v>
+      </c>
+      <c r="F395" t="n">
+        <v>346.5</v>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10651,7 +10678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B413"/>
+  <dimension ref="A1:B414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14789,6 +14816,16 @@
       </c>
       <c r="B413" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>-0.62</v>
       </c>
     </row>
   </sheetData>
@@ -15327,7 +15364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G394"/>
+  <dimension ref="A1:G395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29025,6 +29062,43 @@
         </is>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>-42.87147005733698,173.310338601913</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>-42.872106800289494,173.31009574598855</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>-42.87276626547519,173.31003767184077</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>-42.873427756084276,173.30987578672617</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>-42.87407935805353,173.31008523968407</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0408/nzd0408.xlsx
+++ b/data/nzd0408/nzd0408.xlsx
@@ -14999,28 +14999,28 @@
         <v>0.1328</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3061565281290912</v>
+        <v>-0.3040383098007639</v>
       </c>
       <c r="J2" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K2" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07456674386372097</v>
+        <v>0.07399301042628925</v>
       </c>
       <c r="M2" t="n">
-        <v>6.206261999233464</v>
+        <v>6.199025304276831</v>
       </c>
       <c r="N2" t="n">
-        <v>63.13750465958255</v>
+        <v>62.99398117682384</v>
       </c>
       <c r="O2" t="n">
-        <v>7.945911191272059</v>
+        <v>7.936874773915981</v>
       </c>
       <c r="P2" t="n">
-        <v>348.4741927715583</v>
+        <v>348.4525105440693</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15077,28 +15077,28 @@
         <v>0.1553</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.303537352526093</v>
+        <v>-0.3018142021968412</v>
       </c>
       <c r="J3" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K3" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1110292416493568</v>
+        <v>0.1104419904342133</v>
       </c>
       <c r="M3" t="n">
-        <v>4.834337430174896</v>
+        <v>4.829861820961482</v>
       </c>
       <c r="N3" t="n">
-        <v>41.13209291157036</v>
+        <v>41.043110688139</v>
       </c>
       <c r="O3" t="n">
-        <v>6.413430666310377</v>
+        <v>6.406489732149658</v>
       </c>
       <c r="P3" t="n">
-        <v>344.2081483934802</v>
+        <v>344.1909409133628</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15155,28 +15155,28 @@
         <v>0.1224</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.101438766239216</v>
+        <v>-0.1017149826546355</v>
       </c>
       <c r="J4" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K4" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01238335772449428</v>
+        <v>0.01252328855338414</v>
       </c>
       <c r="M4" t="n">
-        <v>5.065621611057758</v>
+        <v>5.052959326250773</v>
       </c>
       <c r="N4" t="n">
-        <v>45.56363652496661</v>
+        <v>45.43742975231985</v>
       </c>
       <c r="O4" t="n">
-        <v>6.750084186509573</v>
+        <v>6.74072917066988</v>
       </c>
       <c r="P4" t="n">
-        <v>350.1329397780252</v>
+        <v>350.1357137357794</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15227,28 +15227,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.0003144853970169929</v>
+        <v>-0.004505892472136478</v>
       </c>
       <c r="J5" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K5" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L5" t="n">
-        <v>1.111039520385049e-07</v>
+        <v>2.284110745753853e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.139219898610989</v>
+        <v>5.147424953088415</v>
       </c>
       <c r="N5" t="n">
-        <v>49.08259373676761</v>
+        <v>49.15761735399055</v>
       </c>
       <c r="O5" t="n">
-        <v>7.005897068667767</v>
+        <v>7.011249343304698</v>
       </c>
       <c r="P5" t="n">
-        <v>342.6435011268284</v>
+        <v>342.6928489266249</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15305,28 +15305,28 @@
         <v>0.1118</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2928090790020773</v>
+        <v>-0.2908760287720956</v>
       </c>
       <c r="J6" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K6" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0822695789929565</v>
+        <v>0.08168351593334666</v>
       </c>
       <c r="M6" t="n">
-        <v>5.2951462216668</v>
+        <v>5.289187841944195</v>
       </c>
       <c r="N6" t="n">
-        <v>53.18766845253294</v>
+        <v>53.06756270611242</v>
       </c>
       <c r="O6" t="n">
-        <v>7.292987621855184</v>
+        <v>7.284748637126227</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6819931181521</v>
+        <v>350.6625192946604</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">

--- a/data/nzd0408/nzd0408.xlsx
+++ b/data/nzd0408/nzd0408.xlsx
@@ -14990,13 +14990,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09810000000000001</v>
+        <v>0.0994</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1328</v>
+        <v>0.1566</v>
       </c>
       <c r="I2" t="n">
         <v>-0.3040163666809355</v>
@@ -15068,13 +15068,13 @@
         <v>0.2503795568683737</v>
       </c>
       <c r="F3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.111</v>
+        <v>0.1233</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1553</v>
+        <v>0.1663</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3018261524017141</v>
@@ -15146,13 +15146,13 @@
         <v>0.5000396881261148</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09909999999999999</v>
+        <v>0.1011</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1224</v>
+        <v>0.1321</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1017081598999656</v>
@@ -15223,9 +15223,15 @@
       <c r="E5" t="n">
         <v>0.7503164510876188</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0975</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1254</v>
+      </c>
       <c r="I5" t="n">
         <v>-0.004478044581967013</v>
       </c>
@@ -15296,13 +15302,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08939999999999999</v>
+        <v>0.09710000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1118</v>
+        <v>0.1236</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2908760287720957</v>
